--- a/Code/Results/Cases/Case_1_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03913180042827</v>
+        <v>22.65213796871278</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.38557982503101</v>
+        <v>9.124370379460712</v>
       </c>
       <c r="E2">
-        <v>20.67897277422493</v>
+        <v>11.46615376571096</v>
       </c>
       <c r="F2">
-        <v>52.57607573833351</v>
+        <v>58.8570120555176</v>
       </c>
       <c r="G2">
-        <v>2.042281588129187</v>
+        <v>3.791787658700006</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.68459997398215</v>
+        <v>31.64328574314662</v>
       </c>
       <c r="J2">
-        <v>10.38048735440981</v>
+        <v>8.201374489611327</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>20.20382744999862</v>
+        <v>19.7434977694493</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49309731512616</v>
+        <v>22.29668664606048</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.22888522725341</v>
+        <v>8.802352589367167</v>
       </c>
       <c r="E3">
-        <v>19.13297249671593</v>
+        <v>10.89335755312058</v>
       </c>
       <c r="F3">
-        <v>49.90605889980648</v>
+        <v>58.6851424355056</v>
       </c>
       <c r="G3">
-        <v>2.066775264650964</v>
+        <v>3.799334075697982</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.12718628611393</v>
+        <v>31.86648787393751</v>
       </c>
       <c r="J3">
-        <v>9.783102157275806</v>
+        <v>7.991634402982024</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.92146682956081</v>
+        <v>19.50732075406158</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.51256287961803</v>
+        <v>22.08062078246791</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.49900682636963</v>
+        <v>8.602805854197557</v>
       </c>
       <c r="E4">
-        <v>18.15260480454898</v>
+        <v>10.52970657200597</v>
       </c>
       <c r="F4">
-        <v>48.32623661677471</v>
+        <v>58.6019810037673</v>
       </c>
       <c r="G4">
-        <v>2.081819331829748</v>
+        <v>3.804193253990837</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.43419074383501</v>
+        <v>32.01192431917374</v>
       </c>
       <c r="J4">
-        <v>9.407758112396857</v>
+        <v>7.858989960113514</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>18.11997042288885</v>
+        <v>19.36629864283109</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10503320378198</v>
+        <v>21.99322740541495</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.19604733547604</v>
+        <v>8.521171632841016</v>
       </c>
       <c r="E5">
-        <v>17.74459119779499</v>
+        <v>10.37871761952032</v>
       </c>
       <c r="F5">
-        <v>47.69647313463157</v>
+        <v>58.57369251320193</v>
       </c>
       <c r="G5">
-        <v>2.087969683272868</v>
+        <v>3.80623047044477</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.56707793103272</v>
+        <v>32.07329176401736</v>
       </c>
       <c r="J5">
-        <v>9.252484375415767</v>
+        <v>7.804005507827705</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.78963446060473</v>
+        <v>19.3098919988369</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0368824871458</v>
+        <v>21.97875847597451</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.14539198036106</v>
+        <v>8.507601514523687</v>
       </c>
       <c r="E6">
-        <v>17.67630935421609</v>
+        <v>10.35348371047503</v>
       </c>
       <c r="F6">
-        <v>47.59272664655293</v>
+        <v>58.56933263297975</v>
       </c>
       <c r="G6">
-        <v>2.088992624934535</v>
+        <v>3.806572204452878</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.58958580468973</v>
+        <v>32.08360842613781</v>
       </c>
       <c r="J6">
-        <v>9.226557456137034</v>
+        <v>7.794820411805503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.7345555621862</v>
+        <v>19.30059143084407</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.50709902949708</v>
+        <v>22.07943937158419</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.49494409437086</v>
+        <v>8.601705996225592</v>
       </c>
       <c r="E7">
-        <v>18.14713744754997</v>
+        <v>10.52768131438831</v>
       </c>
       <c r="F7">
-        <v>48.31768764067541</v>
+        <v>58.60157685647026</v>
       </c>
       <c r="G7">
-        <v>2.081902175214818</v>
+        <v>3.804220497136834</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.43595268902681</v>
+        <v>32.01274344655204</v>
       </c>
       <c r="J7">
-        <v>9.405673602836876</v>
+        <v>7.858252133314796</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>18.11553057652569</v>
+        <v>19.36553355304805</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51245233215156</v>
+        <v>22.52918918704018</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.99044879204336</v>
+        <v>9.013799712434652</v>
       </c>
       <c r="E8">
-        <v>20.15192123598114</v>
+        <v>11.27124867394037</v>
       </c>
       <c r="F8">
-        <v>51.64240126395254</v>
+        <v>58.79309703930215</v>
       </c>
       <c r="G8">
-        <v>2.050738192393819</v>
+        <v>3.794343024225208</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.82916497383914</v>
+        <v>31.71849927554894</v>
       </c>
       <c r="J8">
-        <v>10.17616197925755</v>
+        <v>8.129881375165843</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.76445242583507</v>
+        <v>19.6612705300307</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.48660061717061</v>
+        <v>23.42380508181537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.80009259503695</v>
+        <v>9.801728283138832</v>
       </c>
       <c r="E9">
-        <v>23.87508633860139</v>
+        <v>12.65790437252191</v>
       </c>
       <c r="F9">
-        <v>58.70181086218614</v>
+        <v>59.34684767875852</v>
       </c>
       <c r="G9">
-        <v>1.988617329551759</v>
+        <v>3.776749046691552</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.98138316317301</v>
+        <v>31.20845846968182</v>
       </c>
       <c r="J9">
-        <v>11.63069649745829</v>
+        <v>8.630263193551711</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>23.32117881115085</v>
+        <v>20.27026933050244</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.30033373366888</v>
+        <v>24.08263740674428</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.85057283810201</v>
+        <v>10.36149108476544</v>
       </c>
       <c r="E10">
-        <v>26.55568882443308</v>
+        <v>13.74271097938783</v>
       </c>
       <c r="F10">
-        <v>64.37987073758856</v>
+        <v>59.86275962729647</v>
       </c>
       <c r="G10">
-        <v>1.940421274449257</v>
+        <v>3.764884603772185</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.68142079280114</v>
+        <v>30.87514126803109</v>
       </c>
       <c r="J10">
-        <v>12.68884857745113</v>
+        <v>8.976251223760755</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.91566703527067</v>
+        <v>20.73182689927377</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.56028154987591</v>
+        <v>24.38143332798519</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.80095380100357</v>
+        <v>10.6107754004761</v>
       </c>
       <c r="E11">
-        <v>27.78755166582305</v>
+        <v>14.20940187340108</v>
       </c>
       <c r="F11">
-        <v>67.30184942213975</v>
+        <v>60.12107598159236</v>
       </c>
       <c r="G11">
-        <v>1.917290824770157</v>
+        <v>3.759713243129723</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.65126435691258</v>
+        <v>30.73263564052214</v>
       </c>
       <c r="J11">
-        <v>13.17667077595193</v>
+        <v>9.128595569729232</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>27.09676493276865</v>
+        <v>20.94409257913827</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.03626819043409</v>
+        <v>24.49434755860734</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.16594350964676</v>
+        <v>10.70431676598577</v>
       </c>
       <c r="E12">
-        <v>28.25886241782096</v>
+        <v>14.3822920844247</v>
       </c>
       <c r="F12">
-        <v>68.43657948008503</v>
+        <v>60.22227232287508</v>
       </c>
       <c r="G12">
-        <v>1.908277417745104</v>
+        <v>3.75778710139936</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.65929338318682</v>
+        <v>30.67999685378902</v>
       </c>
       <c r="J12">
-        <v>13.36345766750212</v>
+        <v>9.185532607507248</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>27.54654227286354</v>
+        <v>21.02473795419083</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.93377073766898</v>
+        <v>24.470041422441</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.08705734431727</v>
+        <v>10.68421036042707</v>
       </c>
       <c r="E13">
-        <v>28.15708045174496</v>
+        <v>14.34522737618424</v>
       </c>
       <c r="F13">
-        <v>68.19077860866554</v>
+        <v>60.20032805669172</v>
       </c>
       <c r="G13">
-        <v>1.910231574199143</v>
+        <v>3.758200506392092</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.65661951955385</v>
+        <v>30.69127440958316</v>
       </c>
       <c r="J13">
-        <v>13.32311492841338</v>
+        <v>9.17330405876851</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>27.44951394534476</v>
+        <v>21.00735878551993</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.59945138631577</v>
+        <v>24.39072809768309</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.83086108167726</v>
+        <v>10.61848874654014</v>
       </c>
       <c r="E14">
-        <v>27.826208047587</v>
+        <v>14.22370241928522</v>
       </c>
       <c r="F14">
-        <v>67.39458188172091</v>
+        <v>60.12933391422971</v>
       </c>
       <c r="G14">
-        <v>1.916554964337384</v>
+        <v>3.759554136078585</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.65150688932954</v>
+        <v>30.72827838235325</v>
       </c>
       <c r="J14">
-        <v>13.19198838629839</v>
+        <v>9.133295037388784</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>27.13370072161151</v>
+        <v>20.95072238685117</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.39458767547082</v>
+        <v>24.34211304256108</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.67469133958403</v>
+        <v>10.57811831969018</v>
       </c>
       <c r="E15">
-        <v>27.62427915149007</v>
+        <v>14.14876592042239</v>
       </c>
       <c r="F15">
-        <v>66.9108528449128</v>
+        <v>60.0862870940575</v>
       </c>
       <c r="G15">
-        <v>1.920392147473149</v>
+        <v>3.760387448986959</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.65105231016889</v>
+        <v>30.75111734443101</v>
       </c>
       <c r="J15">
-        <v>13.11197935003477</v>
+        <v>9.108689620010601</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.94067144496953</v>
+        <v>20.9160635220681</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.21772552935009</v>
+        <v>24.06308323021545</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.78901553262727</v>
+        <v>10.34508432344404</v>
       </c>
       <c r="E16">
-        <v>26.47566840665216</v>
+        <v>13.7116739280686</v>
       </c>
       <c r="F16">
-        <v>64.19237146144978</v>
+        <v>59.84635193192725</v>
       </c>
       <c r="G16">
-        <v>1.941902388831108</v>
+        <v>3.765227080196678</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.68586016416914</v>
+        <v>30.88463902201874</v>
       </c>
       <c r="J16">
-        <v>12.65718482407484</v>
+        <v>8.966191254968043</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25.83868181899084</v>
+        <v>20.71799548766884</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.49168599424414</v>
+        <v>23.89160025058731</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.25173620553264</v>
+        <v>10.20068864171322</v>
       </c>
       <c r="E17">
-        <v>25.77604693435439</v>
+        <v>13.43668157101273</v>
       </c>
       <c r="F17">
-        <v>62.67452233045366</v>
+        <v>59.70519885223815</v>
       </c>
       <c r="G17">
-        <v>1.954740603341337</v>
+        <v>3.768253641731276</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.7370512869701</v>
+        <v>30.96889582927466</v>
       </c>
       <c r="J17">
-        <v>12.38051017189677</v>
+        <v>8.87746052742802</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>25.16431055142766</v>
+        <v>20.59702936962829</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.07206775556058</v>
+        <v>23.79288799698109</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.94416780049766</v>
+        <v>10.11713658540988</v>
       </c>
       <c r="E18">
-        <v>25.37458115983069</v>
+        <v>13.27599019416356</v>
       </c>
       <c r="F18">
-        <v>61.81737441642462</v>
+        <v>59.62623674391915</v>
       </c>
       <c r="G18">
-        <v>1.962017504484347</v>
+        <v>3.770015716613687</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.77619401697442</v>
+        <v>31.01821588920067</v>
       </c>
       <c r="J18">
-        <v>12.22189479123874</v>
+        <v>8.825951293459191</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>24.77632682407692</v>
+        <v>20.52767333578674</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.92960182107028</v>
+        <v>23.75945520635249</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.84021777470109</v>
+        <v>10.08876434036994</v>
       </c>
       <c r="E19">
-        <v>25.23873776944683</v>
+        <v>13.22114902028484</v>
       </c>
       <c r="F19">
-        <v>61.52946692578478</v>
+        <v>59.59988422525835</v>
       </c>
       <c r="G19">
-        <v>1.964464915268684</v>
+        <v>3.770615989321454</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.79100425622594</v>
+        <v>31.03506174462906</v>
       </c>
       <c r="J19">
-        <v>12.16825223240753</v>
+        <v>8.808430657140017</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>24.64488502265562</v>
+        <v>20.50423046054373</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.56917245849657</v>
+        <v>23.90986391784946</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.30876375871302</v>
+        <v>10.21611216804766</v>
       </c>
       <c r="E20">
-        <v>25.850407306757</v>
+        <v>13.46621598237812</v>
       </c>
       <c r="F20">
-        <v>62.83429894295226</v>
+        <v>59.71999463651466</v>
       </c>
       <c r="G20">
-        <v>1.953385551373304</v>
+        <v>3.767929259440928</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.73057161344497</v>
+        <v>30.95983767833396</v>
       </c>
       <c r="J20">
-        <v>12.40990200495987</v>
+        <v>8.8869552893793</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>25.23609460515375</v>
+        <v>20.60988408043347</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.69766232912576</v>
+        <v>24.41403147160223</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.90594806817064</v>
+        <v>10.6378166846806</v>
       </c>
       <c r="E21">
-        <v>27.92323181326046</v>
+        <v>14.25950119339677</v>
       </c>
       <c r="F21">
-        <v>67.62759909738996</v>
+        <v>60.15009514353579</v>
       </c>
       <c r="G21">
-        <v>1.914705342239975</v>
+        <v>3.759155672626852</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.65244145642667</v>
+        <v>30.71737334903145</v>
       </c>
       <c r="J21">
-        <v>13.23043614371762</v>
+        <v>9.145067277169696</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>27.22637044544987</v>
+        <v>20.9673511999206</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.08356206858093</v>
+        <v>24.74212969687103</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>20.98159366368039</v>
+        <v>10.90839540460739</v>
       </c>
       <c r="E22">
-        <v>29.30854601846413</v>
+        <v>14.75561181347683</v>
       </c>
       <c r="F22">
-        <v>70.9945711131076</v>
+        <v>60.45086325940052</v>
       </c>
       <c r="G22">
-        <v>1.887878063171504</v>
+        <v>3.753608807427622</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.71766736035349</v>
+        <v>30.5666386964462</v>
       </c>
       <c r="J22">
-        <v>13.77963278878732</v>
+        <v>9.309362022214231</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>28.54373569601865</v>
+        <v>21.20249117006311</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.3435788201289</v>
+        <v>24.56717877451052</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20.40344246486502</v>
+        <v>10.76446878164428</v>
       </c>
       <c r="E23">
-        <v>28.5650144446635</v>
+        <v>14.49286687641288</v>
       </c>
       <c r="F23">
-        <v>69.1783625995309</v>
+        <v>60.28854604757126</v>
       </c>
       <c r="G23">
-        <v>1.90237403257055</v>
+        <v>3.756552257970074</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.67049030547409</v>
+        <v>30.64637676681045</v>
       </c>
       <c r="J23">
-        <v>13.48481995211836</v>
+        <v>9.222085193319607</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.83804496164711</v>
+        <v>21.07687549931735</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.53414782888676</v>
+        <v>23.9016072935592</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.2829776668249</v>
+        <v>10.2091408578681</v>
       </c>
       <c r="E24">
-        <v>25.81678683895096</v>
+        <v>13.45287155791625</v>
       </c>
       <c r="F24">
-        <v>62.76202053107463</v>
+        <v>59.71329864379081</v>
       </c>
       <c r="G24">
-        <v>1.953998488547228</v>
+        <v>3.768075843923253</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.73347111917106</v>
+        <v>30.96393012930403</v>
       </c>
       <c r="J24">
-        <v>12.39661263811861</v>
+        <v>8.882664252734664</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25.20364206938333</v>
+        <v>20.60407187198339</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.42390178760467</v>
+        <v>23.1810758144645</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.0478485230076</v>
+        <v>9.591482561569595</v>
       </c>
       <c r="E25">
-        <v>22.88389270645185</v>
+        <v>12.27213708415205</v>
       </c>
       <c r="F25">
-        <v>56.72242385094578</v>
+        <v>59.17789022866523</v>
       </c>
       <c r="G25">
-        <v>2.005699798010554</v>
+        <v>3.781320709271233</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.16401064548202</v>
+        <v>31.33921039565361</v>
       </c>
       <c r="J25">
-        <v>11.24126968214975</v>
+        <v>8.498566905996782</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.3545455752372</v>
+        <v>20.10277502703261</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.65213796871278</v>
+        <v>24.03913180042828</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.124370379460712</v>
+        <v>14.38557982503099</v>
       </c>
       <c r="E2">
-        <v>11.46615376571096</v>
+        <v>20.67897277422492</v>
       </c>
       <c r="F2">
-        <v>58.8570120555176</v>
+        <v>52.57607573833357</v>
       </c>
       <c r="G2">
-        <v>3.791787658700006</v>
+        <v>2.042281588129059</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.64328574314662</v>
+        <v>18.68459997398232</v>
       </c>
       <c r="J2">
-        <v>8.201374489611327</v>
+        <v>10.3804873544098</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.7434977694493</v>
+        <v>20.2038274499986</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.29668664606048</v>
+        <v>22.49309731512616</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.802352589367167</v>
+        <v>13.22888522725347</v>
       </c>
       <c r="E3">
-        <v>10.89335755312058</v>
+        <v>19.132972496716</v>
       </c>
       <c r="F3">
-        <v>58.6851424355056</v>
+        <v>49.90605889980646</v>
       </c>
       <c r="G3">
-        <v>3.799334075697982</v>
+        <v>2.066775264650706</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.86648787393751</v>
+        <v>19.12718628611373</v>
       </c>
       <c r="J3">
-        <v>7.991634402982024</v>
+        <v>9.783102157275827</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>19.50732075406158</v>
+        <v>18.92146682956081</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.08062078246791</v>
+        <v>21.51256287961804</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.602805854197557</v>
+        <v>12.49900682636965</v>
       </c>
       <c r="E4">
-        <v>10.52970657200597</v>
+        <v>18.15260480454907</v>
       </c>
       <c r="F4">
-        <v>58.6019810037673</v>
+        <v>48.3262366167747</v>
       </c>
       <c r="G4">
-        <v>3.804193253990837</v>
+        <v>2.081819331830131</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.01192431917374</v>
+        <v>19.43419074383484</v>
       </c>
       <c r="J4">
-        <v>7.858989960113514</v>
+        <v>9.407758112396897</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>19.36629864283109</v>
+        <v>18.11997042288884</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99322740541495</v>
+        <v>21.10503320378196</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.521171632841016</v>
+        <v>12.19604733547604</v>
       </c>
       <c r="E5">
-        <v>10.37871761952032</v>
+        <v>17.744591197795</v>
       </c>
       <c r="F5">
-        <v>58.57369251320193</v>
+        <v>47.69647313463145</v>
       </c>
       <c r="G5">
-        <v>3.80623047044477</v>
+        <v>2.087969683272735</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.07329176401736</v>
+        <v>19.56707793103261</v>
       </c>
       <c r="J5">
-        <v>7.804005507827705</v>
+        <v>9.252484375415847</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>19.3098919988369</v>
+        <v>17.7896344606047</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.97875847597451</v>
+        <v>21.03688248714584</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.507601514523687</v>
+        <v>12.14539198036099</v>
       </c>
       <c r="E6">
-        <v>10.35348371047503</v>
+        <v>17.67630935421599</v>
       </c>
       <c r="F6">
-        <v>58.56933263297975</v>
+        <v>47.59272664655307</v>
       </c>
       <c r="G6">
-        <v>3.806572204452878</v>
+        <v>2.088992624934798</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.08360842613781</v>
+        <v>19.58958580469001</v>
       </c>
       <c r="J6">
-        <v>7.794820411805503</v>
+        <v>9.226557456136971</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>19.30059143084407</v>
+        <v>17.7345555621862</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.07943937158419</v>
+        <v>21.50709902949708</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.601705996225592</v>
+        <v>12.49494409437082</v>
       </c>
       <c r="E7">
-        <v>10.52768131438831</v>
+        <v>18.14713744754985</v>
       </c>
       <c r="F7">
-        <v>58.60157685647026</v>
+        <v>48.31768764067535</v>
       </c>
       <c r="G7">
-        <v>3.804220497136834</v>
+        <v>2.081902175214813</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.01274344655204</v>
+        <v>19.43595268902686</v>
       </c>
       <c r="J7">
-        <v>7.858252133314796</v>
+        <v>9.405673602836764</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>19.36553355304805</v>
+        <v>18.11553057652567</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.52918918704018</v>
+        <v>23.51245233215159</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.013799712434652</v>
+        <v>13.99044879204336</v>
       </c>
       <c r="E8">
-        <v>11.27124867394037</v>
+        <v>20.15192123598107</v>
       </c>
       <c r="F8">
-        <v>58.79309703930215</v>
+        <v>51.64240126395254</v>
       </c>
       <c r="G8">
-        <v>3.794343024225208</v>
+        <v>2.050738192394087</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.71849927554894</v>
+        <v>18.82916497383916</v>
       </c>
       <c r="J8">
-        <v>8.129881375165843</v>
+        <v>10.17616197925746</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.6612705300307</v>
+        <v>19.76445242583505</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.42380508181537</v>
+        <v>27.48660061717066</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.801728283138832</v>
+        <v>16.8000925950371</v>
       </c>
       <c r="E9">
-        <v>12.65790437252191</v>
+        <v>23.87508633860138</v>
       </c>
       <c r="F9">
-        <v>59.34684767875852</v>
+        <v>58.70181086218621</v>
       </c>
       <c r="G9">
-        <v>3.776749046691552</v>
+        <v>1.988617329551627</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.20845846968182</v>
+        <v>17.98138316317293</v>
       </c>
       <c r="J9">
-        <v>8.630263193551711</v>
+        <v>11.63069649745826</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.27026933050244</v>
+        <v>23.32117881115084</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.08263740674428</v>
+        <v>30.3003337336689</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.36149108476544</v>
+        <v>18.850572838102</v>
       </c>
       <c r="E10">
-        <v>13.74271097938783</v>
+        <v>26.55568882443307</v>
       </c>
       <c r="F10">
-        <v>59.86275962729647</v>
+        <v>64.37987073758879</v>
       </c>
       <c r="G10">
-        <v>3.764884603772185</v>
+        <v>1.940421274449138</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.87514126803109</v>
+        <v>17.68142079280109</v>
       </c>
       <c r="J10">
-        <v>8.976251223760755</v>
+        <v>12.68884857745111</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.73182689927377</v>
+        <v>25.91566703527069</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.38143332798519</v>
+        <v>31.56028154987592</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.6107754004761</v>
+        <v>19.80095380100356</v>
       </c>
       <c r="E11">
-        <v>14.20940187340108</v>
+        <v>27.78755166582311</v>
       </c>
       <c r="F11">
-        <v>60.12107598159236</v>
+        <v>67.30184942213975</v>
       </c>
       <c r="G11">
-        <v>3.759713243129723</v>
+        <v>1.917290824770288</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.73263564052214</v>
+        <v>17.65126435691262</v>
       </c>
       <c r="J11">
-        <v>9.128595569729232</v>
+        <v>13.17667077595195</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.94409257913827</v>
+        <v>27.09676493276864</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.49434755860734</v>
+        <v>32.03626819043403</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.70431676598577</v>
+        <v>20.16594350964652</v>
       </c>
       <c r="E12">
-        <v>14.3822920844247</v>
+        <v>28.25886241782076</v>
       </c>
       <c r="F12">
-        <v>60.22227232287508</v>
+        <v>68.43657948008442</v>
       </c>
       <c r="G12">
-        <v>3.75778710139936</v>
+        <v>1.908277417744995</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.67999685378902</v>
+        <v>17.65929338318681</v>
       </c>
       <c r="J12">
-        <v>9.185532607507248</v>
+        <v>13.36345766750209</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.02473795419083</v>
+        <v>27.5465422728633</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.470041422441</v>
+        <v>31.93377073766899</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.68421036042707</v>
+        <v>20.08705734431726</v>
       </c>
       <c r="E13">
-        <v>14.34522737618424</v>
+        <v>28.15708045174484</v>
       </c>
       <c r="F13">
-        <v>60.20032805669172</v>
+        <v>68.19077860866545</v>
       </c>
       <c r="G13">
-        <v>3.758200506392092</v>
+        <v>1.910231574199675</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.69127440958316</v>
+        <v>17.65661951955385</v>
       </c>
       <c r="J13">
-        <v>9.17330405876851</v>
+        <v>13.32311492841332</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.00735878551993</v>
+        <v>27.44951394534471</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.39072809768309</v>
+        <v>31.59945138631587</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.61848874654014</v>
+        <v>19.83086108167732</v>
       </c>
       <c r="E14">
-        <v>14.22370241928522</v>
+        <v>27.82620804758705</v>
       </c>
       <c r="F14">
-        <v>60.12933391422971</v>
+        <v>67.39458188172112</v>
       </c>
       <c r="G14">
-        <v>3.759554136078585</v>
+        <v>1.916554964337242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.72827838235325</v>
+        <v>17.6515068893295</v>
       </c>
       <c r="J14">
-        <v>9.133295037388784</v>
+        <v>13.19198838629843</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.95072238685117</v>
+        <v>27.13370072161158</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.34211304256108</v>
+        <v>31.3945876754709</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.57811831969018</v>
+        <v>19.67469133958401</v>
       </c>
       <c r="E15">
-        <v>14.14876592042239</v>
+        <v>27.62427915149016</v>
       </c>
       <c r="F15">
-        <v>60.0862870940575</v>
+        <v>66.91085284491287</v>
       </c>
       <c r="G15">
-        <v>3.760387448986959</v>
+        <v>1.920392147472999</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.75111734443101</v>
+        <v>17.65105231016875</v>
       </c>
       <c r="J15">
-        <v>9.108689620010601</v>
+        <v>13.11197935003485</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.9160635220681</v>
+        <v>26.94067144496953</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.06308323021545</v>
+        <v>30.2177255293501</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.34508432344404</v>
+        <v>18.78901553262716</v>
       </c>
       <c r="E16">
-        <v>13.7116739280686</v>
+        <v>26.47566840665198</v>
       </c>
       <c r="F16">
-        <v>59.84635193192725</v>
+        <v>64.19237146144957</v>
       </c>
       <c r="G16">
-        <v>3.765227080196678</v>
+        <v>1.941902388831108</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.88463902201874</v>
+        <v>17.68586016416907</v>
       </c>
       <c r="J16">
-        <v>8.966191254968043</v>
+        <v>12.65718482407472</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.71799548766884</v>
+        <v>25.83868181899083</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.89160025058731</v>
+        <v>29.49168599424413</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.20068864171322</v>
+        <v>18.25173620553272</v>
       </c>
       <c r="E17">
-        <v>13.43668157101273</v>
+        <v>25.77604693435455</v>
       </c>
       <c r="F17">
-        <v>59.70519885223815</v>
+        <v>62.67452233045381</v>
       </c>
       <c r="G17">
-        <v>3.768253641731276</v>
+        <v>1.954740603341206</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.96889582927466</v>
+        <v>17.73705128697019</v>
       </c>
       <c r="J17">
-        <v>8.87746052742802</v>
+        <v>12.38051017189688</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.59702936962829</v>
+        <v>25.16431055142775</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.79288799698109</v>
+        <v>29.0720677555606</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.11713658540988</v>
+        <v>17.94416780049755</v>
       </c>
       <c r="E18">
-        <v>13.27599019416356</v>
+        <v>25.37458115983065</v>
       </c>
       <c r="F18">
-        <v>59.62623674391915</v>
+        <v>61.81737441642473</v>
       </c>
       <c r="G18">
-        <v>3.770015716613687</v>
+        <v>1.962017504484228</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.01821588920067</v>
+        <v>17.77619401697451</v>
       </c>
       <c r="J18">
-        <v>8.825951293459191</v>
+        <v>12.22189479123873</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.52767333578674</v>
+        <v>24.77632682407688</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.75945520635249</v>
+        <v>28.92960182107031</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.08876434036994</v>
+        <v>17.84021777470112</v>
       </c>
       <c r="E19">
-        <v>13.22114902028484</v>
+        <v>25.23873776944682</v>
       </c>
       <c r="F19">
-        <v>59.59988422525835</v>
+        <v>61.52946692578482</v>
       </c>
       <c r="G19">
-        <v>3.770615989321454</v>
+        <v>1.964464915268552</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.03506174462906</v>
+        <v>17.79100425622598</v>
       </c>
       <c r="J19">
-        <v>8.808430657140017</v>
+        <v>12.1682522324075</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.50423046054373</v>
+        <v>24.64488502265558</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.90986391784946</v>
+        <v>29.56917245849661</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.21611216804766</v>
+        <v>18.30876375871303</v>
       </c>
       <c r="E20">
-        <v>13.46621598237812</v>
+        <v>25.85040730675708</v>
       </c>
       <c r="F20">
-        <v>59.71999463651466</v>
+        <v>62.83429894295253</v>
       </c>
       <c r="G20">
-        <v>3.767929259440928</v>
+        <v>1.953385551373305</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.95983767833396</v>
+        <v>17.73057161344501</v>
       </c>
       <c r="J20">
-        <v>8.8869552893793</v>
+        <v>12.40990200495998</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.60988408043347</v>
+        <v>25.23609460515386</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.41403147160223</v>
+        <v>31.69766232912584</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.6378166846806</v>
+        <v>19.90594806817089</v>
       </c>
       <c r="E21">
-        <v>14.25950119339677</v>
+        <v>27.9232318132607</v>
       </c>
       <c r="F21">
-        <v>60.15009514353579</v>
+        <v>67.62759909739057</v>
       </c>
       <c r="G21">
-        <v>3.759155672626852</v>
+        <v>1.914705342240248</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.71737334903145</v>
+        <v>17.65244145642675</v>
       </c>
       <c r="J21">
-        <v>9.145067277169696</v>
+        <v>13.23043614371772</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.9673511999206</v>
+        <v>27.22637044545005</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.74212969687103</v>
+        <v>33.08356206858092</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.90839540460739</v>
+        <v>20.98159366368032</v>
       </c>
       <c r="E22">
-        <v>14.75561181347683</v>
+        <v>29.308546018464</v>
       </c>
       <c r="F22">
-        <v>60.45086325940052</v>
+        <v>70.99457111310753</v>
       </c>
       <c r="G22">
-        <v>3.753608807427622</v>
+        <v>1.887878063171387</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.5666386964462</v>
+        <v>17.71766736035368</v>
       </c>
       <c r="J22">
-        <v>9.309362022214231</v>
+        <v>13.7796327887873</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.20249117006311</v>
+        <v>28.54373569601859</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.56717877451052</v>
+        <v>32.34357882012892</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.76446878164428</v>
+        <v>20.40344246486506</v>
       </c>
       <c r="E23">
-        <v>14.49286687641288</v>
+        <v>28.56501444466354</v>
       </c>
       <c r="F23">
-        <v>60.28854604757126</v>
+        <v>69.17836259953106</v>
       </c>
       <c r="G23">
-        <v>3.756552257970074</v>
+        <v>1.902374032570417</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.64637676681045</v>
+        <v>17.67049030547415</v>
       </c>
       <c r="J23">
-        <v>9.222085193319607</v>
+        <v>13.48481995211837</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.07687549931735</v>
+        <v>27.83804496164716</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.9016072935592</v>
+        <v>29.53414782888676</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.2091408578681</v>
+        <v>18.28297766682487</v>
       </c>
       <c r="E24">
-        <v>13.45287155791625</v>
+        <v>25.81678683895089</v>
       </c>
       <c r="F24">
-        <v>59.71329864379081</v>
+        <v>62.76202053107447</v>
       </c>
       <c r="G24">
-        <v>3.768075843923253</v>
+        <v>1.953998488547224</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.96393012930403</v>
+        <v>17.73347111917092</v>
       </c>
       <c r="J24">
-        <v>8.882664252734664</v>
+        <v>12.39661263811858</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.60407187198339</v>
+        <v>25.20364206938325</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.1810758144645</v>
+        <v>26.42390178760466</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.591482561569595</v>
+        <v>16.04784852300755</v>
       </c>
       <c r="E25">
-        <v>12.27213708415205</v>
+        <v>22.88389270645187</v>
       </c>
       <c r="F25">
-        <v>59.17789022866523</v>
+        <v>56.72242385094582</v>
       </c>
       <c r="G25">
-        <v>3.781320709271233</v>
+        <v>2.005699798010817</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.33921039565361</v>
+        <v>18.16401064548218</v>
       </c>
       <c r="J25">
-        <v>8.498566905996782</v>
+        <v>11.24126968214976</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.10277502703261</v>
+        <v>22.35454557523721</v>
       </c>
       <c r="M25">
         <v>0</v>
